--- a/购买名单.xlsx
+++ b/购买名单.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JG\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Develop\Git\first\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -520,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -786,6 +786,11 @@
         <v>16</v>
       </c>
     </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>222</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
